--- a/biology/Zoologie/Chinchaysuyu_spinosa/Chinchaysuyu_spinosa.xlsx
+++ b/biology/Zoologie/Chinchaysuyu_spinosa/Chinchaysuyu_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chinchaysuyu spinosa, unique représentant du genre Chinchaysuyu, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinchaysuyu spinosa, unique représentant du genre Chinchaysuyu, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Cajamarca au Pérou[1],[2]. Elle se rencontre vers San José, Lagunas et Cumbe Mayo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Cajamarca au Pérou,. Elle se rencontre vers San José, Lagunas et Cumbe Mayo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 23,04 mm et la femelle paratype 24,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 23,04 mm et la femelle paratype 24,1 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Ferretti, Chaparro, Ochoa et West en 2023.
 Ce genre a été décrit par Ferretti, Chaparro, Ochoa et West en 2023 dans les Theraphosidae.
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ferretti, Chaparro, Ochoa &amp; West, 2023 : « A new tarantula (Mygalomorphae: Theraphosidae) genus endemic from Peru with a novel genitalic morphology among theraphosinae and its phylogenetic placement. » Zoologischer Anzeiger, vol. 302, p. 102-112.</t>
         </is>
